--- a/biology/Botanique/Giraumon/Giraumon.xlsx
+++ b/biology/Botanique/Giraumon/Giraumon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucurbita maxima, Cucurbita moschata
 Giraumon (giromon, ou giraumont) est le nom donné aux Antilles et en Guyane à certaines variétés de Cucurbitaceae appartenant aux espèces Cucurbita maxima (potiron, potimarron) et Cucurbita moschata (Courge musquée) ; cette dernière espèce serait la seule présente en Guyane.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme dérive de jirumum, emprunté à la langue tupi qui désignait une sorte de courge cultivée dans les îles des Antilles par les Indiens caraïbes. Il est attesté dès l'an 1614 sous la forme giromon[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme dérive de jirumum, emprunté à la langue tupi qui désignait une sorte de courge cultivée dans les îles des Antilles par les Indiens caraïbes. Il est attesté dès l'an 1614 sous la forme giromon,.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses variétés de giraumon.
 Le potiron bonnet turc est, par exemple, classé parmi les giraumons. Sa partie inférieure, hémisphérique, porte une sorte de calotte à trois bosses dont elle est séparée par un liseré liégeux.
@@ -577,11 +593,13 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se décline en salade, en purée (chatinis), en compote (migan) dans les potages pour les rendre plus consistants. La chair une fois cuite est très onctueuse mais quelque peu farineuse.
-En Haïti, on l'utilise pour faire la fameuse soupe de l'Indépendance[3], le 1er janvier, date d'anniversaire de l'indépendance d'Haïti.
-En Guyane, il existe un plat traditionnel appelé giraumonade[4] fait à base de purée de giraumon.
+En Haïti, on l'utilise pour faire la fameuse soupe de l'Indépendance, le 1er janvier, date d'anniversaire de l'indépendance d'Haïti.
+En Guyane, il existe un plat traditionnel appelé giraumonade fait à base de purée de giraumon.
 Son écorce évidée peut être utilisée comme récipient.
 </t>
         </is>
